--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0495785075829768</v>
+        <v>0.04069533333333333</v>
       </c>
       <c r="N2">
-        <v>0.0495785075829768</v>
+        <v>0.122086</v>
       </c>
       <c r="O2">
-        <v>0.1972843596657054</v>
+        <v>0.1372091977792263</v>
       </c>
       <c r="P2">
-        <v>0.1972843596657054</v>
+        <v>0.1776788780933641</v>
       </c>
       <c r="Q2">
-        <v>6.836438293692445</v>
+        <v>6.174543061832223</v>
       </c>
       <c r="R2">
-        <v>6.836438293692445</v>
+        <v>55.57088755649</v>
       </c>
       <c r="S2">
-        <v>0.05160801177060073</v>
+        <v>0.03705662945748218</v>
       </c>
       <c r="T2">
-        <v>0.05160801177060073</v>
+        <v>0.04945454368051139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.201726297658486</v>
+        <v>0.053234</v>
       </c>
       <c r="N3">
-        <v>0.201726297658486</v>
+        <v>0.159702</v>
       </c>
       <c r="O3">
-        <v>0.8027156403342944</v>
+        <v>0.1794848164714873</v>
       </c>
       <c r="P3">
-        <v>0.8027156403342944</v>
+        <v>0.2324236373479878</v>
       </c>
       <c r="Q3">
-        <v>27.81627470026541</v>
+        <v>8.076985699103334</v>
       </c>
       <c r="R3">
-        <v>27.81627470026541</v>
+        <v>72.69287129193</v>
       </c>
       <c r="S3">
-        <v>0.2099839961212034</v>
+        <v>0.04847417261290254</v>
       </c>
       <c r="T3">
-        <v>0.2099839961212034</v>
+        <v>0.064692016569181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0495785075829768</v>
+        <v>0.202664</v>
       </c>
       <c r="N4">
-        <v>0.0495785075829768</v>
+        <v>0.405328</v>
       </c>
       <c r="O4">
-        <v>0.1972843596657054</v>
+        <v>0.6833059857492862</v>
       </c>
       <c r="P4">
-        <v>0.1972843596657054</v>
+        <v>0.589897484558648</v>
       </c>
       <c r="Q4">
-        <v>3.748396139126743</v>
+        <v>30.74941258825334</v>
       </c>
       <c r="R4">
-        <v>3.748396139126743</v>
+        <v>184.49647552952</v>
       </c>
       <c r="S4">
-        <v>0.02829649939902318</v>
+        <v>0.1845431438257745</v>
       </c>
       <c r="T4">
-        <v>0.02829649939902318</v>
+        <v>0.1641900896166172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.201726297658486</v>
+        <v>0.04069533333333333</v>
       </c>
       <c r="N5">
-        <v>0.201726297658486</v>
+        <v>0.122086</v>
       </c>
       <c r="O5">
-        <v>0.8027156403342944</v>
+        <v>0.1372091977792263</v>
       </c>
       <c r="P5">
-        <v>0.8027156403342944</v>
+        <v>0.1776788780933641</v>
       </c>
       <c r="Q5">
-        <v>15.25156992751092</v>
+        <v>3.347145221635333</v>
       </c>
       <c r="R5">
-        <v>15.25156992751092</v>
+        <v>30.124306994718</v>
       </c>
       <c r="S5">
-        <v>0.1151335193159477</v>
+        <v>0.02008795128261961</v>
       </c>
       <c r="T5">
-        <v>0.1151335193159477</v>
+        <v>0.02680871084884135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J6">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0495785075829768</v>
+        <v>0.053234</v>
       </c>
       <c r="N6">
-        <v>0.0495785075829768</v>
+        <v>0.159702</v>
       </c>
       <c r="O6">
-        <v>0.1972843596657054</v>
+        <v>0.1794848164714873</v>
       </c>
       <c r="P6">
-        <v>0.1972843596657054</v>
+        <v>0.2324236373479878</v>
       </c>
       <c r="Q6">
-        <v>5.647821020538939</v>
+        <v>4.378436398814</v>
       </c>
       <c r="R6">
-        <v>5.647821020538939</v>
+        <v>39.40592758932601</v>
       </c>
       <c r="S6">
-        <v>0.04263518533841571</v>
+        <v>0.02627726353338563</v>
       </c>
       <c r="T6">
-        <v>0.04263518533841571</v>
+        <v>0.03506876087333242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.201726297658486</v>
+        <v>0.202664</v>
       </c>
       <c r="N7">
-        <v>0.201726297658486</v>
+        <v>0.405328</v>
       </c>
       <c r="O7">
-        <v>0.8027156403342944</v>
+        <v>0.6833059857492862</v>
       </c>
       <c r="P7">
-        <v>0.8027156403342944</v>
+        <v>0.589897484558648</v>
       </c>
       <c r="Q7">
-        <v>22.97999838749251</v>
+        <v>16.668885192344</v>
       </c>
       <c r="R7">
-        <v>22.97999838749251</v>
+        <v>100.013311154064</v>
       </c>
       <c r="S7">
-        <v>0.1734751308096064</v>
+        <v>0.1000386094738337</v>
       </c>
       <c r="T7">
-        <v>0.1734751308096064</v>
+        <v>0.08900546459822721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H8">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I8">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J8">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.0495785075829768</v>
+        <v>0.04069533333333333</v>
       </c>
       <c r="N8">
-        <v>0.0495785075829768</v>
+        <v>0.122086</v>
       </c>
       <c r="O8">
-        <v>0.1972843596657054</v>
+        <v>0.1372091977792263</v>
       </c>
       <c r="P8">
-        <v>0.1972843596657054</v>
+        <v>0.1776788780933641</v>
       </c>
       <c r="Q8">
-        <v>7.481497137350573</v>
+        <v>5.023607791202</v>
       </c>
       <c r="R8">
-        <v>7.481497137350573</v>
+        <v>45.212470120818</v>
       </c>
       <c r="S8">
-        <v>0.05647753636309995</v>
+        <v>0.03014927106250561</v>
       </c>
       <c r="T8">
-        <v>0.05647753636309995</v>
+        <v>0.0402362131830424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H9">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I9">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J9">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.201726297658486</v>
+        <v>0.053234</v>
       </c>
       <c r="N9">
-        <v>0.201726297658486</v>
+        <v>0.159702</v>
       </c>
       <c r="O9">
-        <v>0.8027156403342944</v>
+        <v>0.1794848164714873</v>
       </c>
       <c r="P9">
-        <v>0.8027156403342944</v>
+        <v>0.2324236373479878</v>
       </c>
       <c r="Q9">
-        <v>30.44090659514919</v>
+        <v>6.571434984114001</v>
       </c>
       <c r="R9">
-        <v>30.44090659514919</v>
+        <v>59.14291485702601</v>
       </c>
       <c r="S9">
-        <v>0.2297972421282111</v>
+        <v>0.03943858335291738</v>
       </c>
       <c r="T9">
-        <v>0.2297972421282111</v>
+        <v>0.05263342002980061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H10">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I10">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J10">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0495785075829768</v>
+        <v>0.202664</v>
       </c>
       <c r="N10">
-        <v>0.0495785075829768</v>
+        <v>0.405328</v>
       </c>
       <c r="O10">
-        <v>0.1972843596657054</v>
+        <v>0.6833059857492862</v>
       </c>
       <c r="P10">
-        <v>0.1972843596657054</v>
+        <v>0.589897484558648</v>
       </c>
       <c r="Q10">
-        <v>2.419819730494751</v>
+        <v>25.017719871144</v>
       </c>
       <c r="R10">
-        <v>2.419819730494751</v>
+        <v>150.106319226864</v>
       </c>
       <c r="S10">
-        <v>0.01826712679456581</v>
+        <v>0.1501442885493416</v>
       </c>
       <c r="T10">
-        <v>0.01826712679456581</v>
+        <v>0.1335850451080076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H11">
+        <v>463.02893</v>
+      </c>
+      <c r="I11">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J11">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04069533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.122086</v>
+      </c>
+      <c r="O11">
+        <v>0.1372091977792263</v>
+      </c>
+      <c r="P11">
+        <v>0.1776788780933641</v>
+      </c>
+      <c r="Q11">
+        <v>6.281038883108889</v>
+      </c>
+      <c r="R11">
+        <v>56.52934994798</v>
+      </c>
+      <c r="S11">
+        <v>0.03769576601354802</v>
+      </c>
+      <c r="T11">
+        <v>0.05030751404485703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H12">
+        <v>463.02893</v>
+      </c>
+      <c r="I12">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J12">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.053234</v>
+      </c>
+      <c r="N12">
+        <v>0.159702</v>
+      </c>
+      <c r="O12">
+        <v>0.1794848164714873</v>
+      </c>
+      <c r="P12">
+        <v>0.2324236373479878</v>
+      </c>
+      <c r="Q12">
+        <v>8.216294019873333</v>
+      </c>
+      <c r="R12">
+        <v>73.94664617886001</v>
+      </c>
+      <c r="S12">
+        <v>0.04931023396536578</v>
+      </c>
+      <c r="T12">
+        <v>0.06580779620916204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H11">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I11">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J11">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.201726297658486</v>
-      </c>
-      <c r="N11">
-        <v>0.201726297658486</v>
-      </c>
-      <c r="O11">
-        <v>0.8027156403342944</v>
-      </c>
-      <c r="P11">
-        <v>0.8027156403342944</v>
-      </c>
-      <c r="Q11">
-        <v>9.845824310396729</v>
-      </c>
-      <c r="R11">
-        <v>9.845824310396729</v>
-      </c>
-      <c r="S11">
-        <v>0.07432575195932582</v>
-      </c>
-      <c r="T11">
-        <v>0.07432575195932582</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H13">
+        <v>463.02893</v>
+      </c>
+      <c r="I13">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J13">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.202664</v>
+      </c>
+      <c r="N13">
+        <v>0.405328</v>
+      </c>
+      <c r="O13">
+        <v>0.6833059857492862</v>
+      </c>
+      <c r="P13">
+        <v>0.589897484558648</v>
+      </c>
+      <c r="Q13">
+        <v>31.27976502317333</v>
+      </c>
+      <c r="R13">
+        <v>187.67859013904</v>
+      </c>
+      <c r="S13">
+        <v>0.1877260633496804</v>
+      </c>
+      <c r="T13">
+        <v>0.1670219685531003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>50.0323125</v>
+      </c>
+      <c r="H14">
+        <v>100.064625</v>
+      </c>
+      <c r="I14">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J14">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04069533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.122086</v>
+      </c>
+      <c r="O14">
+        <v>0.1372091977792263</v>
+      </c>
+      <c r="P14">
+        <v>0.1776788780933641</v>
+      </c>
+      <c r="Q14">
+        <v>2.036081634625</v>
+      </c>
+      <c r="R14">
+        <v>12.21648980775</v>
+      </c>
+      <c r="S14">
+        <v>0.01221957996307086</v>
+      </c>
+      <c r="T14">
+        <v>0.01087189633611198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50.0323125</v>
+      </c>
+      <c r="H15">
+        <v>100.064625</v>
+      </c>
+      <c r="I15">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J15">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.053234</v>
+      </c>
+      <c r="N15">
+        <v>0.159702</v>
+      </c>
+      <c r="O15">
+        <v>0.1794848164714873</v>
+      </c>
+      <c r="P15">
+        <v>0.2324236373479878</v>
+      </c>
+      <c r="Q15">
+        <v>2.663420123625</v>
+      </c>
+      <c r="R15">
+        <v>15.98052074175</v>
+      </c>
+      <c r="S15">
+        <v>0.01598456300691597</v>
+      </c>
+      <c r="T15">
+        <v>0.01422164366651177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>50.0323125</v>
+      </c>
+      <c r="H16">
+        <v>100.064625</v>
+      </c>
+      <c r="I16">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J16">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.202664</v>
+      </c>
+      <c r="N16">
+        <v>0.405328</v>
+      </c>
+      <c r="O16">
+        <v>0.6833059857492862</v>
+      </c>
+      <c r="P16">
+        <v>0.589897484558648</v>
+      </c>
+      <c r="Q16">
+        <v>10.1397485805</v>
+      </c>
+      <c r="R16">
+        <v>40.558994322</v>
+      </c>
+      <c r="S16">
+        <v>0.06085388055065594</v>
+      </c>
+      <c r="T16">
+        <v>0.03609491668269579</v>
       </c>
     </row>
   </sheetData>
